--- a/Python MP/Dummy/MP_Periods.xlsx
+++ b/Python MP/Dummy/MP_Periods.xlsx
@@ -434,7 +434,7 @@
         <v>42917</v>
       </c>
       <c r="C2" t="n">
-        <v>17171944.52076939</v>
+        <v>30069628.41130289</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -445,7 +445,7 @@
         <v>42948</v>
       </c>
       <c r="C3" t="n">
-        <v>15468699.9721415</v>
+        <v>30451155.52104158</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -456,7 +456,7 @@
         <v>42979</v>
       </c>
       <c r="C4" t="n">
-        <v>12490238.21990626</v>
+        <v>29235395.94287915</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -467,7 +467,7 @@
         <v>43009</v>
       </c>
       <c r="C5" t="n">
-        <v>10452597.9689349</v>
+        <v>27621756.92994593</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -478,7 +478,7 @@
         <v>43040</v>
       </c>
       <c r="C6" t="n">
-        <v>19223715.84979226</v>
+        <v>21068886.77918181</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -489,7 +489,7 @@
         <v>43070</v>
       </c>
       <c r="C7" t="n">
-        <v>20559374.2921231</v>
+        <v>16482197.74908954</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -500,7 +500,7 @@
         <v>43101</v>
       </c>
       <c r="C8" t="n">
-        <v>23668923.66772404</v>
+        <v>15672051.99445239</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -511,7 +511,7 @@
         <v>43132</v>
       </c>
       <c r="C9" t="n">
-        <v>14676669.39094618</v>
+        <v>23791206.67902881</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -522,7 +522,7 @@
         <v>43160</v>
       </c>
       <c r="C10" t="n">
-        <v>15259789.11233596</v>
+        <v>20058428.65129203</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -533,7 +533,7 @@
         <v>43191</v>
       </c>
       <c r="C11" t="n">
-        <v>17481123.8467322</v>
+        <v>21531916.73029743</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -544,7 +544,7 @@
         <v>43221</v>
       </c>
       <c r="C12" t="n">
-        <v>5453034.981740001</v>
+        <v>26555468.09344389</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -555,7 +555,7 @@
         <v>43252</v>
       </c>
       <c r="C13" t="n">
-        <v>5904005.803848291</v>
+        <v>17065803.1786648</v>
       </c>
     </row>
   </sheetData>
